--- a/GeoList.xlsx
+++ b/GeoList.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/onat/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/onat/Documents/ornament_symmgroups/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="680" windowWidth="28560" windowHeight="17380" tabRatio="500"/>
+    <workbookView xWindow="1260" yWindow="2460" windowWidth="28560" windowHeight="17380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Geographic" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
   <si>
     <t>Moslem Arab</t>
   </si>
@@ -44,250 +44,253 @@
     <t>Venice</t>
   </si>
   <si>
-    <t>Birgi</t>
-  </si>
-  <si>
-    <t>Akhan</t>
+    <t>Birgi, Turkey</t>
+  </si>
+  <si>
+    <t>Istanbul</t>
+  </si>
+  <si>
+    <t>Akhan, Turkey</t>
   </si>
   <si>
     <t>e</t>
   </si>
   <si>
-    <t>Egridir</t>
-  </si>
-  <si>
-    <t>Incir han</t>
-  </si>
-  <si>
-    <t>Evdir Han</t>
-  </si>
-  <si>
-    <t>Susuz Han</t>
-  </si>
-  <si>
-    <t>Antalya</t>
-  </si>
-  <si>
-    <t>Atabey</t>
-  </si>
-  <si>
-    <t>Boyalikoy</t>
-  </si>
-  <si>
-    <t>Cay</t>
-  </si>
-  <si>
-    <t>Afyon</t>
-  </si>
-  <si>
-    <t>Aksehir</t>
-  </si>
-  <si>
-    <t>Seyitgazi</t>
-  </si>
-  <si>
-    <t>Sivrihisar</t>
-  </si>
-  <si>
-    <t>Ankara</t>
-  </si>
-  <si>
-    <t>Kubadabad</t>
-  </si>
-  <si>
-    <t>Aspendos</t>
-  </si>
-  <si>
-    <t>Obakoy</t>
-  </si>
-  <si>
-    <t>Seydisehir</t>
-  </si>
-  <si>
-    <t>Kurucesme han</t>
-  </si>
-  <si>
-    <t>Meram</t>
-  </si>
-  <si>
-    <t>Ilgin</t>
-  </si>
-  <si>
-    <t>ishakli han</t>
-  </si>
-  <si>
-    <t>Obaköy</t>
-  </si>
-  <si>
-    <t>kiziloren han</t>
-  </si>
-  <si>
-    <t>sadeddin han</t>
-  </si>
-  <si>
-    <t>ermenek</t>
-  </si>
-  <si>
-    <t>sultanhan</t>
-  </si>
-  <si>
-    <t>kirsehir</t>
-  </si>
-  <si>
-    <t>gaferyat koy</t>
-  </si>
-  <si>
-    <t>karaman</t>
-  </si>
-  <si>
-    <t>agzikara han</t>
-  </si>
-  <si>
-    <t>nigde</t>
-  </si>
-  <si>
-    <t>sarihan</t>
-  </si>
-  <si>
-    <t>keykubadiye</t>
-  </si>
-  <si>
-    <t>damsa koy</t>
-  </si>
-  <si>
-    <t>misis</t>
-  </si>
-  <si>
-    <t>develi</t>
-  </si>
-  <si>
-    <t>corum</t>
-  </si>
-  <si>
-    <t>alaca</t>
-  </si>
-  <si>
-    <t>kalehisar</t>
-  </si>
-  <si>
-    <t>kasabakoy</t>
-  </si>
-  <si>
-    <t>cankiri</t>
-  </si>
-  <si>
-    <t>konya</t>
-  </si>
-  <si>
-    <t>ayas</t>
-  </si>
-  <si>
-    <t>oba koy</t>
-  </si>
-  <si>
-    <t>alayhan</t>
-  </si>
-  <si>
-    <t>sinop</t>
-  </si>
-  <si>
-    <t>erkilet</t>
-  </si>
-  <si>
-    <t>bunyan</t>
-  </si>
-  <si>
-    <t>karatay-han</t>
-  </si>
-  <si>
-    <t>pazaroren</t>
-  </si>
-  <si>
-    <t>sivas</t>
-  </si>
-  <si>
-    <t>amasya</t>
-  </si>
-  <si>
-    <t>cakilli han</t>
-  </si>
-  <si>
-    <t>niksar</t>
-  </si>
-  <si>
-    <t>tokat</t>
-  </si>
-  <si>
-    <t>divrigi</t>
-  </si>
-  <si>
-    <t>afsin</t>
-  </si>
-  <si>
-    <t>malatya</t>
-  </si>
-  <si>
-    <t>kemah</t>
-  </si>
-  <si>
-    <t>trabzon</t>
-  </si>
-  <si>
-    <t>harput</t>
-  </si>
-  <si>
-    <t>hani</t>
-  </si>
-  <si>
-    <t>silvan</t>
-  </si>
-  <si>
-    <t>diyarbakir</t>
-  </si>
-  <si>
-    <t>hasan</t>
-  </si>
-  <si>
-    <t>tercan</t>
-  </si>
-  <si>
-    <t>bayburt</t>
-  </si>
-  <si>
-    <t>erzurum</t>
-  </si>
-  <si>
-    <t>erzincan</t>
-  </si>
-  <si>
-    <t>mardin</t>
-  </si>
-  <si>
-    <t>kiziltepe</t>
-  </si>
-  <si>
-    <t>siirt</t>
-  </si>
-  <si>
-    <t>ahlat</t>
-  </si>
-  <si>
-    <t>cukur</t>
-  </si>
-  <si>
-    <t>tatvan</t>
-  </si>
-  <si>
-    <t>horosan</t>
-  </si>
-  <si>
-    <t>asagi soylemez koy</t>
-  </si>
-  <si>
-    <t>van</t>
-  </si>
-  <si>
-    <t>ercis</t>
+    <t>Egridir, Turkey</t>
+  </si>
+  <si>
+    <t>Incir han, Turkey</t>
+  </si>
+  <si>
+    <t>Evdir Han, Turkey</t>
+  </si>
+  <si>
+    <t>Susuz Han, Turkey</t>
+  </si>
+  <si>
+    <t>Antalya, Turkey</t>
+  </si>
+  <si>
+    <t>Atabey, Turkey</t>
+  </si>
+  <si>
+    <t>Boyalikoy, Turkey</t>
+  </si>
+  <si>
+    <t>Çay, Turkey</t>
+  </si>
+  <si>
+    <t>Afyon, Turkey</t>
+  </si>
+  <si>
+    <t>Aksehir, Turkey</t>
+  </si>
+  <si>
+    <t>Seyitgazi, Turkey</t>
+  </si>
+  <si>
+    <t>Sivrihisar, Turkey</t>
+  </si>
+  <si>
+    <t>Ankara, Turkey</t>
+  </si>
+  <si>
+    <t>Kubadabad, Turkey</t>
+  </si>
+  <si>
+    <t>Aspendos, Turkey</t>
+  </si>
+  <si>
+    <t>Obakoy, Turkey</t>
+  </si>
+  <si>
+    <t>Seydisehir, Turkey</t>
+  </si>
+  <si>
+    <t>Kurucesme han, Turkey</t>
+  </si>
+  <si>
+    <t>Meram, Turkey</t>
+  </si>
+  <si>
+    <t>Ilgin, Turkey</t>
+  </si>
+  <si>
+    <t>ishakli han, Turkey</t>
+  </si>
+  <si>
+    <t>Obaköy, Turkey</t>
+  </si>
+  <si>
+    <t>kiziloren han, Turkey</t>
+  </si>
+  <si>
+    <t>sadeddin han, Turkey</t>
+  </si>
+  <si>
+    <t>ermenek, Turkey</t>
+  </si>
+  <si>
+    <t>sultanhan, Turkey</t>
+  </si>
+  <si>
+    <t>kirsehir, Turkey</t>
+  </si>
+  <si>
+    <t>gaferyat koy, Turkey</t>
+  </si>
+  <si>
+    <t>karaman, Turkey</t>
+  </si>
+  <si>
+    <t>agzikara han, Turkey</t>
+  </si>
+  <si>
+    <t>nigde, Turkey</t>
+  </si>
+  <si>
+    <t>sarihan, Turkey</t>
+  </si>
+  <si>
+    <t>keykubadiye, Turkey</t>
+  </si>
+  <si>
+    <t>damsa koy, Turkey</t>
+  </si>
+  <si>
+    <t>misis, Turkey</t>
+  </si>
+  <si>
+    <t>develi, Turkey</t>
+  </si>
+  <si>
+    <t>corum, Turkey</t>
+  </si>
+  <si>
+    <t>alaca, Turkey</t>
+  </si>
+  <si>
+    <t>kalehisar, Turkey</t>
+  </si>
+  <si>
+    <t>kasabakoy, Turkey</t>
+  </si>
+  <si>
+    <t>cankiri, Turkey</t>
+  </si>
+  <si>
+    <t>konya, Turkey</t>
+  </si>
+  <si>
+    <t>ayas, Turkey</t>
+  </si>
+  <si>
+    <t>oba koy, Turkey</t>
+  </si>
+  <si>
+    <t>alayhan, Turkey</t>
+  </si>
+  <si>
+    <t>sinop, Turkey</t>
+  </si>
+  <si>
+    <t>erkilet, Turkey</t>
+  </si>
+  <si>
+    <t>bunyan, Turkey</t>
+  </si>
+  <si>
+    <t>karatay han, Turkey</t>
+  </si>
+  <si>
+    <t>pazaroren, Turkey</t>
+  </si>
+  <si>
+    <t>sivas, Turkey</t>
+  </si>
+  <si>
+    <t>amasya, Turkey</t>
+  </si>
+  <si>
+    <t>cakilli han, Turkey</t>
+  </si>
+  <si>
+    <t>niksar, Turkey</t>
+  </si>
+  <si>
+    <t>tokat, Turkey</t>
+  </si>
+  <si>
+    <t>divrigi, Turkey</t>
+  </si>
+  <si>
+    <t>afsin, Turkey</t>
+  </si>
+  <si>
+    <t>malatya, Turkey</t>
+  </si>
+  <si>
+    <t>kemah, Turkey</t>
+  </si>
+  <si>
+    <t>trabzon, Turkey</t>
+  </si>
+  <si>
+    <t>harput, Turkey</t>
+  </si>
+  <si>
+    <t>hani, Turkey</t>
+  </si>
+  <si>
+    <t>silvan, Turkey</t>
+  </si>
+  <si>
+    <t>diyarbakir, Turkey</t>
+  </si>
+  <si>
+    <t>hasan, Turkey</t>
+  </si>
+  <si>
+    <t>tercan, Turkey</t>
+  </si>
+  <si>
+    <t>bayburt, Turkey</t>
+  </si>
+  <si>
+    <t>erzurum, Turkey</t>
+  </si>
+  <si>
+    <t>erzincan, Turkey</t>
+  </si>
+  <si>
+    <t>mardin, Turkey</t>
+  </si>
+  <si>
+    <t>kiziltepe, Turkey</t>
+  </si>
+  <si>
+    <t>siirt, Turkey</t>
+  </si>
+  <si>
+    <t>ahlat, Turkey</t>
+  </si>
+  <si>
+    <t>cukur, Turkey</t>
+  </si>
+  <si>
+    <t>tatvan, Turkey</t>
+  </si>
+  <si>
+    <t>horosan, Turkey</t>
+  </si>
+  <si>
+    <t>asagi soylemez koy, Turkey</t>
+  </si>
+  <si>
+    <t>van, Turkey</t>
+  </si>
+  <si>
+    <t>ercis, Turkey</t>
   </si>
 </sst>
 </file>
@@ -631,426 +634,429 @@
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E3" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E6" s="4" t="s">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E7" s="4" t="s">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E8" s="4" t="s">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E9" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E10" s="4" t="s">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E11" s="4" t="s">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E12" s="4" t="s">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E11" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E13" s="4" t="s">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E14" s="4" t="s">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E13" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E15" s="4" t="s">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E16" s="4" t="s">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E15" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E17" s="4" t="s">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E16" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E18" s="4" t="s">
+    <row r="17" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E19" s="4" t="s">
+    <row r="18" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E18" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E20" s="4" t="s">
+    <row r="19" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E19" s="5" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E20" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E21" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E22" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E23" s="4" t="s">
+    <row r="22" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E22" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E24" s="4" t="s">
+    <row r="23" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E23" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E25" s="4" t="s">
+    <row r="24" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E24" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E25" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E26" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E27" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E28" s="4" t="s">
+    <row r="27" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E27" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E29" s="4" t="s">
+    <row r="28" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E28" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E30" s="4" t="s">
+    <row r="29" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E29" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E31" s="4" t="s">
+    <row r="30" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E30" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E32" s="4" t="s">
+    <row r="31" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E31" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E33" s="4" t="s">
+    <row r="32" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E32" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E34" s="4" t="s">
+    <row r="33" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E33" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E35" s="4" t="s">
+    <row r="34" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E34" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E36" s="4" t="s">
+    <row r="35" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E35" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E37" s="4" t="s">
+    <row r="36" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E36" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E38" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E39" s="4" t="s">
+    <row r="37" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E37" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E40" s="4" t="s">
+    <row r="38" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E38" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E41" s="4" t="s">
+    <row r="40" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E40" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E42" s="4" t="s">
+    <row r="41" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E41" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E43" s="4" t="s">
+    <row r="42" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E42" s="5" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E43" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E44" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E45" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E46" s="4" t="s">
+    <row r="45" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E45" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E47" s="4" t="s">
+    <row r="46" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E46" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E48" s="4" t="s">
+    <row r="47" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E47" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E49" s="4" t="s">
+    <row r="48" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E48" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E50" s="4" t="s">
+    <row r="49" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E49" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E51" s="4" t="s">
+    <row r="50" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E50" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E52" s="4" t="s">
+    <row r="51" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E51" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E53" s="4" t="s">
+    <row r="52" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E52" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E54" s="4" t="s">
+    <row r="53" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E53" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E55" s="4" t="s">
+    <row r="54" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E54" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E56" s="4" t="s">
+    <row r="55" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E55" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E57" s="4" t="s">
+    <row r="56" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E56" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E58" s="4" t="s">
+    <row r="57" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E57" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E59" s="4" t="s">
+    <row r="58" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E58" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E60" s="4" t="s">
+    <row r="59" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E59" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E61" s="4" t="s">
+    <row r="60" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E60" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E62" s="4" t="s">
+    <row r="61" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E61" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E63" s="4" t="s">
+    <row r="62" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E62" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E64" s="4" t="s">
+    <row r="63" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E63" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E65" s="4" t="s">
+    <row r="64" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E64" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E66" s="4" t="s">
+    <row r="65" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E65" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E67" s="4" t="s">
+    <row r="66" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E66" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E68" s="4" t="s">
+    <row r="67" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E67" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E69" s="4" t="s">
+    <row r="68" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E68" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E70" s="4" t="s">
+    <row r="69" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E69" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E71" s="4" t="s">
+    <row r="70" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E70" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E72" s="4" t="s">
+    <row r="71" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E71" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E73" s="4" t="s">
+    <row r="72" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E72" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E74" s="4" t="s">
+    <row r="73" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E73" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E75" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E76" s="4" t="s">
+    <row r="74" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E74" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E77" s="4" t="s">
+    <row r="75" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E75" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E76" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E78" s="4" t="s">
+    <row r="77" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E77" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E79" s="4" t="s">
+    <row r="78" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E78" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E80" s="4" t="s">
+    <row r="79" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E79" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E81" s="4" t="s">
+    <row r="80" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E80" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E82" s="4" t="s">
+    <row r="81" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E81" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E83" s="4" t="s">
+    <row r="82" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E82" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E84" s="4" t="s">
+    <row r="83" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E83" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="5:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="E85" s="4" t="s">
+    <row r="84" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E84" s="5" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="5:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="E85" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/GeoList.xlsx
+++ b/GeoList.xlsx
@@ -1,35 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/onat/Documents/ornament_symmgroups/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="2460" windowWidth="28560" windowHeight="17380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Geographic" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
-  <si>
-    <t>Moslem Arab</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
+    <t>Andalusia Arabs</t>
+  </si>
+  <si>
+    <t>ME Arabs</t>
   </si>
   <si>
     <t>Eastern Roman</t>
@@ -41,28 +32,58 @@
     <t>Seljuks</t>
   </si>
   <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>Bagdat</t>
+  </si>
+  <si>
     <t>Venice</t>
   </si>
   <si>
+    <t>Yerevan</t>
+  </si>
+  <si>
     <t>Birgi, Turkey</t>
   </si>
   <si>
-    <t>Istanbul</t>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>Cairo</t>
   </si>
   <si>
     <t>Akhan, Turkey</t>
   </si>
   <si>
-    <t>e</t>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Damascus</t>
   </si>
   <si>
     <t>Egridir, Turkey</t>
   </si>
   <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Aleppo</t>
+  </si>
+  <si>
     <t>Incir han, Turkey</t>
   </si>
   <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>Musul</t>
+  </si>
+  <si>
     <t>Evdir Han, Turkey</t>
+  </si>
+  <si>
+    <t>Erbil</t>
   </si>
   <si>
     <t>Susuz Han, Turkey</t>
@@ -296,43 +317,60 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="24"/>
+      <color indexed="8"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Times"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Times"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -341,71 +379,225 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="9"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="9"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="9"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffcccccc"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ff3f3f3f"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Blank">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -413,49 +605,49 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="5E5E5E"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="D5D5D5"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="00A2FF"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="16E7CF"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="61D836"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FAE232"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="FF644E"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="EF5FA7"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Blank">
       <a:majorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Blank">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -464,76 +656,66 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -544,522 +726,1930 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E85"/>
+  <dimension ref="A2:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" ht="117" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="C2" t="s" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C2" s="4" t="s">
+      <c r="D2" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" t="s" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C3" s="4" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" ht="20.7" customHeight="1">
+      <c r="A3" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="B3" t="s" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="C3" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="D3" t="s" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E5" s="5" t="s">
+      <c r="E3" t="s" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E6" s="5" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" ht="20.7" customHeight="1">
+      <c r="A4" t="s" s="8">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E7" s="5" t="s">
+      <c r="B4" t="s" s="8">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E8" s="5" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" t="s" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E10" s="5" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" ht="20.7" customHeight="1">
+      <c r="A5" t="s" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="5" t="s">
+      <c r="B5" t="s" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="5" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" t="s" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="5" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" ht="33" customHeight="1">
+      <c r="A6" t="s" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E14" s="5" t="s">
+      <c r="B6" t="s" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E15" s="5" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" t="s" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="5" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" ht="33" customHeight="1">
+      <c r="A7" t="s" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="5" t="s">
+      <c r="B7" t="s" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="5" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" t="s" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E19" s="5" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" ht="33" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" t="s" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E20" s="5" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" t="s" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E21" s="5" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" ht="20.7" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" t="s" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E22" s="5" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" ht="20.7" customHeight="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" ht="20.7" customHeight="1">
+      <c r="A11" s="14"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" t="s" s="7">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E23" s="5" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" ht="33" customHeight="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" t="s" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E24" s="5" t="s">
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" ht="20.7" customHeight="1">
+      <c r="A13" s="14"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" t="s" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="5" t="s">
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" ht="20.7" customHeight="1">
+      <c r="A14" s="14"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" t="s" s="7">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="5" t="s">
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" ht="20.7" customHeight="1">
+      <c r="A15" s="14"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" t="s" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="5" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" ht="33" customHeight="1">
+      <c r="A16" s="14"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" t="s" s="7">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E28" s="5" t="s">
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" ht="33" customHeight="1">
+      <c r="A17" s="14"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" t="s" s="7">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E29" s="5" t="s">
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" ht="20.7" customHeight="1">
+      <c r="A18" s="14"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" t="s" s="7">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E30" s="5" t="s">
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" ht="33" customHeight="1">
+      <c r="A19" s="14"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" t="s" s="7">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E31" s="5" t="s">
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" ht="33" customHeight="1">
+      <c r="A20" s="14"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" t="s" s="7">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E32" s="5" t="s">
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" ht="20.7" customHeight="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" t="s" s="7">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E33" s="5" t="s">
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" ht="33" customHeight="1">
+      <c r="A22" s="14"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" t="s" s="7">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E34" s="5" t="s">
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" ht="33" customHeight="1">
+      <c r="A23" s="14"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" t="s" s="15">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E35" s="5" t="s">
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" ht="20.7" customHeight="1">
+      <c r="A24" s="14"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" t="s" s="7">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E36" s="5" t="s">
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" ht="20.7" customHeight="1">
+      <c r="A25" s="14"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" t="s" s="7">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="5" t="s">
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" ht="33" customHeight="1">
+      <c r="A26" s="14"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" t="s" s="7">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="5" t="s">
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" ht="20.7" customHeight="1">
+      <c r="A27" s="14"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" t="s" s="7">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E40" s="5" t="s">
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" ht="33" customHeight="1">
+      <c r="A28" s="14"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" t="s" s="15">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E41" s="5" t="s">
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" ht="33" customHeight="1">
+      <c r="A29" s="14"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" t="s" s="15">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E42" s="5" t="s">
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" ht="20.7" customHeight="1">
+      <c r="A30" s="14"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" t="s" s="7">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E43" s="5" t="s">
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" ht="33" customHeight="1">
+      <c r="A31" s="14"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" t="s" s="7">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E44" s="5" t="s">
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" ht="20.7" customHeight="1">
+      <c r="A32" s="14"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" t="s" s="7">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E45" s="5" t="s">
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" ht="33" customHeight="1">
+      <c r="A33" s="14"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" t="s" s="15">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E46" s="5" t="s">
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" ht="20.7" customHeight="1">
+      <c r="A34" s="14"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" t="s" s="7">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E47" s="5" t="s">
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" ht="33" customHeight="1">
+      <c r="A35" s="14"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" t="s" s="15">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E48" s="5" t="s">
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" ht="20.7" customHeight="1">
+      <c r="A36" s="14"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" t="s" s="7">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E49" s="5" t="s">
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" ht="20.7" customHeight="1">
+      <c r="A37" s="14"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" t="s" s="7">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E50" s="5" t="s">
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" ht="33" customHeight="1">
+      <c r="A38" s="14"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" t="s" s="15">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E51" s="5" t="s">
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" ht="20.7" customHeight="1">
+      <c r="A39" s="14"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" ht="33" customHeight="1">
+      <c r="A40" s="14"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" t="s" s="7">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E52" s="5" t="s">
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" ht="20.7" customHeight="1">
+      <c r="A41" s="14"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" t="s" s="7">
         <v>55</v>
       </c>
-    </row>
-    <row r="53" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E53" s="5" t="s">
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" ht="20.7" customHeight="1">
+      <c r="A42" s="14"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" t="s" s="7">
         <v>56</v>
       </c>
-    </row>
-    <row r="54" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E54" s="5" t="s">
+      <c r="F42" s="12"/>
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" ht="20.7" customHeight="1">
+      <c r="A43" s="14"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" t="s" s="7">
         <v>57</v>
       </c>
-    </row>
-    <row r="55" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E55" s="5" t="s">
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" ht="20.7" customHeight="1">
+      <c r="A44" s="14"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" t="s" s="7">
         <v>58</v>
       </c>
-    </row>
-    <row r="56" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E56" s="5" t="s">
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" ht="33" customHeight="1">
+      <c r="A45" s="14"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" t="s" s="7">
         <v>59</v>
       </c>
-    </row>
-    <row r="57" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E57" s="5" t="s">
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" ht="33" customHeight="1">
+      <c r="A46" s="14"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" t="s" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E58" s="5" t="s">
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" ht="20.7" customHeight="1">
+      <c r="A47" s="14"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" t="s" s="7">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E59" s="5" t="s">
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" ht="20.7" customHeight="1">
+      <c r="A48" s="14"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" t="s" s="8">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E60" s="5" t="s">
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" ht="20.7" customHeight="1">
+      <c r="A49" s="14"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" t="s" s="7">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E61" s="5" t="s">
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" ht="20.7" customHeight="1">
+      <c r="A50" s="14"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" t="s" s="7">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E62" s="5" t="s">
+      <c r="F50" s="12"/>
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" ht="20.7" customHeight="1">
+      <c r="A51" s="14"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" t="s" s="7">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E63" s="5" t="s">
+      <c r="F51" s="12"/>
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" ht="20.7" customHeight="1">
+      <c r="A52" s="14"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" t="s" s="7">
         <v>66</v>
       </c>
-    </row>
-    <row r="64" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E64" s="5" t="s">
+      <c r="F52" s="12"/>
+      <c r="G52" s="13"/>
+    </row>
+    <row r="53" ht="20.7" customHeight="1">
+      <c r="A53" s="14"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" t="s" s="7">
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E65" s="5" t="s">
+      <c r="F53" s="12"/>
+      <c r="G53" s="13"/>
+    </row>
+    <row r="54" ht="20.7" customHeight="1">
+      <c r="A54" s="14"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" t="s" s="7">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E66" s="5" t="s">
+      <c r="F54" s="12"/>
+      <c r="G54" s="13"/>
+    </row>
+    <row r="55" ht="33" customHeight="1">
+      <c r="A55" s="14"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" t="s" s="15">
         <v>69</v>
       </c>
-    </row>
-    <row r="67" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E67" s="5" t="s">
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+    </row>
+    <row r="56" ht="33" customHeight="1">
+      <c r="A56" s="14"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" t="s" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="68" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E68" s="5" t="s">
+      <c r="F56" s="12"/>
+      <c r="G56" s="13"/>
+    </row>
+    <row r="57" ht="20.7" customHeight="1">
+      <c r="A57" s="14"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" t="s" s="7">
         <v>71</v>
       </c>
-    </row>
-    <row r="69" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E69" s="5" t="s">
+      <c r="F57" s="12"/>
+      <c r="G57" s="13"/>
+    </row>
+    <row r="58" ht="20.7" customHeight="1">
+      <c r="A58" s="14"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" t="s" s="7">
         <v>72</v>
       </c>
-    </row>
-    <row r="70" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E70" s="5" t="s">
+      <c r="F58" s="12"/>
+      <c r="G58" s="13"/>
+    </row>
+    <row r="59" ht="33" customHeight="1">
+      <c r="A59" s="14"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" t="s" s="7">
         <v>73</v>
       </c>
-    </row>
-    <row r="71" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E71" s="5" t="s">
+      <c r="F59" s="12"/>
+      <c r="G59" s="13"/>
+    </row>
+    <row r="60" ht="20.7" customHeight="1">
+      <c r="A60" s="14"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" t="s" s="7">
         <v>74</v>
       </c>
-    </row>
-    <row r="72" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E72" s="5" t="s">
+      <c r="F60" s="12"/>
+      <c r="G60" s="13"/>
+    </row>
+    <row r="61" ht="20.7" customHeight="1">
+      <c r="A61" s="14"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" t="s" s="7">
         <v>75</v>
       </c>
-    </row>
-    <row r="73" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E73" s="5" t="s">
+      <c r="F61" s="12"/>
+      <c r="G61" s="13"/>
+    </row>
+    <row r="62" ht="20.7" customHeight="1">
+      <c r="A62" s="14"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" t="s" s="7">
         <v>76</v>
       </c>
-    </row>
-    <row r="74" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E74" s="5" t="s">
+      <c r="F62" s="12"/>
+      <c r="G62" s="13"/>
+    </row>
+    <row r="63" ht="20.7" customHeight="1">
+      <c r="A63" s="14"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" t="s" s="7">
         <v>77</v>
       </c>
-    </row>
-    <row r="75" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E75" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E76" s="5" t="s">
+      <c r="F63" s="12"/>
+      <c r="G63" s="13"/>
+    </row>
+    <row r="64" ht="20.7" customHeight="1">
+      <c r="A64" s="14"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" t="s" s="7">
         <v>78</v>
       </c>
-    </row>
-    <row r="77" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E77" s="5" t="s">
+      <c r="F64" s="12"/>
+      <c r="G64" s="13"/>
+    </row>
+    <row r="65" ht="20.7" customHeight="1">
+      <c r="A65" s="14"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" t="s" s="7">
         <v>79</v>
       </c>
-    </row>
-    <row r="78" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E78" s="5" t="s">
+      <c r="F65" s="12"/>
+      <c r="G65" s="13"/>
+    </row>
+    <row r="66" ht="20.7" customHeight="1">
+      <c r="A66" s="14"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" t="s" s="7">
         <v>80</v>
       </c>
-    </row>
-    <row r="79" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E79" s="5" t="s">
+      <c r="F66" s="12"/>
+      <c r="G66" s="13"/>
+    </row>
+    <row r="67" ht="20.7" customHeight="1">
+      <c r="A67" s="14"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" t="s" s="7">
         <v>81</v>
       </c>
-    </row>
-    <row r="80" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E80" s="5" t="s">
+      <c r="F67" s="12"/>
+      <c r="G67" s="13"/>
+    </row>
+    <row r="68" ht="20.7" customHeight="1">
+      <c r="A68" s="14"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" t="s" s="7">
         <v>82</v>
       </c>
-    </row>
-    <row r="81" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E81" s="5" t="s">
+      <c r="F68" s="12"/>
+      <c r="G68" s="13"/>
+    </row>
+    <row r="69" ht="20.7" customHeight="1">
+      <c r="A69" s="14"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" t="s" s="7">
         <v>83</v>
       </c>
-    </row>
-    <row r="82" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E82" s="5" t="s">
+      <c r="F69" s="12"/>
+      <c r="G69" s="13"/>
+    </row>
+    <row r="70" ht="33" customHeight="1">
+      <c r="A70" s="14"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" t="s" s="7">
         <v>84</v>
       </c>
-    </row>
-    <row r="83" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E83" s="5" t="s">
+      <c r="F70" s="12"/>
+      <c r="G70" s="13"/>
+    </row>
+    <row r="71" ht="20.7" customHeight="1">
+      <c r="A71" s="14"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" t="s" s="7">
         <v>85</v>
       </c>
-    </row>
-    <row r="84" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E84" s="5" t="s">
+      <c r="F71" s="12"/>
+      <c r="G71" s="13"/>
+    </row>
+    <row r="72" ht="20.7" customHeight="1">
+      <c r="A72" s="14"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" t="s" s="7">
         <v>86</v>
       </c>
-    </row>
-    <row r="85" spans="5:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="E85" s="5" t="s">
+      <c r="F72" s="12"/>
+      <c r="G72" s="13"/>
+    </row>
+    <row r="73" ht="20.7" customHeight="1">
+      <c r="A73" s="14"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" t="s" s="7">
         <v>87</v>
       </c>
+      <c r="F73" s="12"/>
+      <c r="G73" s="13"/>
+    </row>
+    <row r="74" ht="20.7" customHeight="1">
+      <c r="A74" s="14"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="F74" s="12"/>
+      <c r="G74" s="13"/>
+    </row>
+    <row r="75" ht="20.7" customHeight="1">
+      <c r="A75" s="14"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="F75" s="12"/>
+      <c r="G75" s="13"/>
+    </row>
+    <row r="76" ht="20.7" customHeight="1">
+      <c r="A76" s="14"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" t="s" s="7">
+        <v>85</v>
+      </c>
+      <c r="F76" s="12"/>
+      <c r="G76" s="13"/>
+    </row>
+    <row r="77" ht="20.7" customHeight="1">
+      <c r="A77" s="14"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="F77" s="12"/>
+      <c r="G77" s="13"/>
+    </row>
+    <row r="78" ht="20.7" customHeight="1">
+      <c r="A78" s="14"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" t="s" s="7">
+        <v>91</v>
+      </c>
+      <c r="F78" s="12"/>
+      <c r="G78" s="13"/>
+    </row>
+    <row r="79" ht="20.7" customHeight="1">
+      <c r="A79" s="14"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" t="s" s="7">
+        <v>92</v>
+      </c>
+      <c r="F79" s="12"/>
+      <c r="G79" s="13"/>
+    </row>
+    <row r="80" ht="20.7" customHeight="1">
+      <c r="A80" s="14"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" t="s" s="7">
+        <v>93</v>
+      </c>
+      <c r="F80" s="12"/>
+      <c r="G80" s="13"/>
+    </row>
+    <row r="81" ht="20.7" customHeight="1">
+      <c r="A81" s="14"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" t="s" s="7">
+        <v>94</v>
+      </c>
+      <c r="F81" s="12"/>
+      <c r="G81" s="13"/>
+    </row>
+    <row r="82" ht="20.7" customHeight="1">
+      <c r="A82" s="14"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" t="s" s="7">
+        <v>95</v>
+      </c>
+      <c r="F82" s="12"/>
+      <c r="G82" s="13"/>
+    </row>
+    <row r="83" ht="20.7" customHeight="1">
+      <c r="A83" s="14"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" t="s" s="7">
+        <v>96</v>
+      </c>
+      <c r="F83" s="12"/>
+      <c r="G83" s="13"/>
+    </row>
+    <row r="84" ht="33" customHeight="1">
+      <c r="A84" s="14"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" t="s" s="15">
+        <v>97</v>
+      </c>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+    </row>
+    <row r="85" ht="20.7" customHeight="1">
+      <c r="A85" s="14"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" t="s" s="7">
+        <v>98</v>
+      </c>
+      <c r="F85" s="12"/>
+      <c r="G85" s="13"/>
+    </row>
+    <row r="86" ht="20.7" customHeight="1">
+      <c r="A86" s="14"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" t="s" s="7">
+        <v>99</v>
+      </c>
+      <c r="F86" s="12"/>
+      <c r="G86" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>